--- a/src/test/resources/data-excel/test1.xlsx
+++ b/src/test/resources/data-excel/test1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1083E46C-9C39-489E-A49E-3F2F1E408F1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A6A2A0-5AC5-40D1-BE9A-3EB265D610B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,41 +20,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TEST_CASE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>----------&gt;案例1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>----------&gt;案例2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>----------&gt;案例3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>----------&gt;案例4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>----------&gt;案例5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>----------&gt;案例6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>----------&gt;案例7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -393,37 +389,44 @@
     <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
